--- a/experiment/Result Analysis.xlsx
+++ b/experiment/Result Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84097\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29274E-E1B3-4E29-8E8F-FBF75467D7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96246967-F2AE-4C9F-A75A-0808D44F6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{C787EE50-9488-4076-9B3E-6C4BBE8FA416}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>DBLP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,74 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num of P = 513278
-"1 1 0 2 2 3 0 0 1"=82020233us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num of T = 84323
-"1 1 0 2 2 3 0 0 1"=738662us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num of [1] = 1186
-"3 5 0 0 1 3 0 2 3"=359815us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num of [2] = 5348
-"3 5 0 0 1 3 0 2 3"=110894us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num of [1] = 4803
-"1 1 0 2 2 3 0 0 1"=1815658us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num of [2] = 88
-"1 1 0 2 2 3 0 0 1"=49808us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num of [1] = 409340
-"1 3 0 2 3 5 0 0 1"=155026118us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num of [2] = 66019
-"1 3 0 2 3 5 0 0 1"=493554us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6425064us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189731us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>454035965us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>713689us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512213us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10267408us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46812595us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1] join analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11064594us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>total: 91,350,165
 useful: 82,611,016
 useless: 8,739,149</t>
@@ -384,6 +312,162 @@
     <t>total: 14,728,291
 useful: 474,144
 useless: 14,254,147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of P = 513278
+"1 1 0 2 2 3 0 0 1"=82,020,233us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,425,064us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of T = 84323
+"1 1 0 2 2 3 0 0 1"=738,662us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713,689us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [1] = 1186
+"3 5 0 0 1 3 0 2 3"=359,815us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,731us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [2] = 5348
+"3 5 0 0 1 3 0 2 3"=110,894us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512,213us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [1] = 4803
+"1 1 0 2 2 3 0 0 1"=1,815,658us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,064,594us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [2] = 88
+"1 1 0 2 2 3 0 0 1"=49,808us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,267,408us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [1] = 409340
+"1 3 0 2 3 5 0 0 1"=155,026,118us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>454,035,965us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [2] = 66019
+"1 3 0 2 3 5 0 0 1"=493,554us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,812,595us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以[1]为分点，估算join次数所需要的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”1 1 0 2 2 3 0 0 1“=1,327,271us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以[2]为分点，估算join次数所需要的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”1 1 0 2 2 3 0 0 1“=1,178,846us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”1 1 0 2 2 3 0 0 1“=58,319us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”1 1 0 2 2 3 0 0 1“=44,329us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3 5 0 0 1 3 0 2 3"=7,536us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3 5 0 0 1 3 0 2 3"=8,504us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1 3 0 2 3 5 0 0 1"=1,335,388us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1 3 0 2 3 5 0 0 1"=1,249,994us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0] 查找所需要的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0] Join所需要的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of A = 54881
+"1 1 0 2 2 3  0 0 1"=5,515,450us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [0] = 54588
+"1 1 0 2 2 3 0 0 1"=19,295,988us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,835,536us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231,500us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106,670us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [0] = 886
+"3 5 0 0 1 3 0 2 3"=375,142us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of [0] = 402154
+"1 3 0 2 3 5 0 0 1"=158,848,148us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86,659,332us</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1128,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1062,17 +1146,17 @@
     <col min="8" max="10" width="30.796875" customWidth="1"/>
     <col min="11" max="12" width="31.59765625" style="2" customWidth="1"/>
     <col min="13" max="13" width="27.59765625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="31.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="29.73046875" customWidth="1"/>
-    <col min="16" max="16" width="28.86328125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="28.86328125" customWidth="1"/>
-    <col min="18" max="18" width="28.86328125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="26.46484375" customWidth="1"/>
-    <col min="20" max="20" width="24.86328125" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="14" max="16" width="31.59765625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="29.73046875" customWidth="1"/>
+    <col min="18" max="18" width="28.86328125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="28.86328125" customWidth="1"/>
+    <col min="20" max="20" width="28.86328125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="26.46484375" customWidth="1"/>
+    <col min="22" max="22" width="24.86328125" customWidth="1"/>
+    <col min="23" max="24" width="35.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1116,25 +1200,37 @@
         <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>66</v>
+      <c r="U1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1175,25 +1271,37 @@
         <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>74</v>
+      <c r="W2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1234,25 +1342,37 @@
         <v>17</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>76</v>
+      <c r="V3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1395,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>41</v>
@@ -1293,25 +1413,37 @@
         <v>23</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>72</v>
+      <c r="V4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1352,25 +1484,37 @@
         <v>21</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1390,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="135" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>

--- a/experiment/Result Analysis.xlsx
+++ b/experiment/Result Analysis.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CPP\SCAN\HINSCAN\experiment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFAE2D-9D5A-4067-B798-285B6EEF256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Dataset</t>
   </si>
@@ -286,9 +292,6 @@
     <t>”1 1 0 2 2 3 0 0 1“=44,329us</t>
   </si>
   <si>
-    <t>DBLP</t>
-  </si>
-  <si>
     <t>"1 3 0 0 1"=944367us
 num of [0] = 402154
 "1 3 0 2 3 5 0 0 1"=245507480us</t>
@@ -351,9 +354,6 @@
     <t>"1 3 0 2 3 5 0 0 1"=1,249,994us</t>
   </si>
   <si>
-    <t>Dbpedia</t>
-  </si>
-  <si>
     <t>"1 3 0 0 1"=3089291us</t>
   </si>
   <si>
@@ -361,18 +361,25 @@
   </si>
   <si>
     <t>"1 1 0 0 1"=1007883us</t>
+  </si>
+  <si>
+    <t>DBLP70W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBLP200W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -388,6 +395,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,53 +431,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,10 +479,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -515,71 +520,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,7 +612,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -630,11 +635,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -643,13 +648,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -659,7 +664,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -668,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -677,7 +682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -685,10 +690,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -753,43 +758,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="30.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="28.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="35.59765625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25">
+    <row r="1" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="64.5">
+    <row r="2" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -882,7 +882,6 @@
       <c r="F2" s="4">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
@@ -922,20 +921,20 @@
       <c r="T2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="52.5">
+    <row r="3" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -954,7 +953,6 @@
       <c r="F3" s="4">
         <v>12</v>
       </c>
-      <c r="G3" s="5"/>
       <c r="H3" s="3" t="s">
         <v>43</v>
       </c>
@@ -994,20 +992,20 @@
       <c r="T3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="64.5">
+    <row r="4" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1026,7 +1024,6 @@
       <c r="F4" s="4">
         <v>37</v>
       </c>
-      <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
@@ -1066,22 +1063,22 @@
       <c r="T4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="64.5">
+    <row r="5" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4">
         <v>748884</v>
@@ -1098,68 +1095,67 @@
       <c r="F5" s="4">
         <v>11</v>
       </c>
-      <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="V5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4">
-        <v>854616</v>
+        <v>2056444</v>
       </c>
       <c r="C6" s="4">
-        <v>3898144</v>
+        <v>6607065</v>
       </c>
       <c r="D6" s="4">
         <v>4</v>
@@ -1168,146 +1164,37 @@
         <v>3</v>
       </c>
       <c r="F6" s="4">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="4">
-        <v>5900558</v>
+        <v>4472122</v>
       </c>
       <c r="C7" s="4">
-        <v>17961887</v>
+        <v>10200000</v>
       </c>
       <c r="D7" s="4">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
-        <v>637</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
-        <v>50</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2056444</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6607065</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="135.75">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4472122</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10200000</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>